--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ngf-Ngfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>Ngfr</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H2">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I2">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J2">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.485658947973787</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N2">
-        <v>0.485658947973787</v>
+        <v>2.083929</v>
       </c>
       <c r="O2">
-        <v>0.09334258558796031</v>
+        <v>0.1269399741689062</v>
       </c>
       <c r="P2">
-        <v>0.09334258558796031</v>
+        <v>0.1269399741689062</v>
       </c>
       <c r="Q2">
-        <v>0.3279705657601211</v>
+        <v>0.5033755969743334</v>
       </c>
       <c r="R2">
-        <v>0.3279705657601211</v>
+        <v>4.530380372769002</v>
       </c>
       <c r="S2">
-        <v>0.02011067999963102</v>
+        <v>0.02273841003033514</v>
       </c>
       <c r="T2">
-        <v>0.02011067999963102</v>
+        <v>0.02273841003033514</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,60 +587,60 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.675310456295398</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H3">
-        <v>0.675310456295398</v>
+        <v>2.173961</v>
       </c>
       <c r="I3">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J3">
-        <v>0.2154502135649537</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>4.71731400284652</v>
+        <v>0.05042666666666667</v>
       </c>
       <c r="N3">
-        <v>4.71731400284652</v>
+        <v>0.15128</v>
       </c>
       <c r="O3">
-        <v>0.9066574144120396</v>
+        <v>0.009215035297398391</v>
       </c>
       <c r="P3">
-        <v>0.9066574144120396</v>
+        <v>0.009215035297398391</v>
       </c>
       <c r="Q3">
-        <v>3.185651471750954</v>
+        <v>0.03654186889777778</v>
       </c>
       <c r="R3">
-        <v>3.185651471750954</v>
+        <v>0.32887682008</v>
       </c>
       <c r="S3">
-        <v>0.1953395335653227</v>
+        <v>0.001650664043443466</v>
       </c>
       <c r="T3">
-        <v>0.1953395335653227</v>
+        <v>0.001650664043443467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -646,55 +649,55 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.45910489248218</v>
+        <v>0.7246536666666668</v>
       </c>
       <c r="H4">
-        <v>2.45910489248218</v>
+        <v>2.173961</v>
       </c>
       <c r="I4">
-        <v>0.7845497864350464</v>
+        <v>0.1791272621505297</v>
       </c>
       <c r="J4">
-        <v>0.7845497864350464</v>
+        <v>0.1791272621505298</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.485658947973787</v>
+        <v>4.727146666666667</v>
       </c>
       <c r="N4">
-        <v>0.485658947973787</v>
+        <v>14.18144</v>
       </c>
       <c r="O4">
-        <v>0.09334258558796031</v>
+        <v>0.8638449905336953</v>
       </c>
       <c r="P4">
-        <v>0.09334258558796031</v>
+        <v>0.8638449905336955</v>
       </c>
       <c r="Q4">
-        <v>1.194286295040088</v>
+        <v>3.425544164871112</v>
       </c>
       <c r="R4">
-        <v>1.194286295040088</v>
+        <v>30.82989748384</v>
       </c>
       <c r="S4">
-        <v>0.0732319055883293</v>
+        <v>0.1547381880767511</v>
       </c>
       <c r="T4">
-        <v>0.0732319055883293</v>
+        <v>0.1547381880767512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,55 +711,179 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.320814666666667</v>
+      </c>
+      <c r="H5">
+        <v>9.962444</v>
+      </c>
+      <c r="I5">
+        <v>0.8208727378494701</v>
+      </c>
+      <c r="J5">
+        <v>0.8208727378494702</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6946430000000001</v>
+      </c>
+      <c r="N5">
+        <v>2.083929</v>
+      </c>
+      <c r="O5">
+        <v>0.1269399741689062</v>
+      </c>
+      <c r="P5">
+        <v>0.1269399741689062</v>
+      </c>
+      <c r="Q5">
+        <v>2.306780662497334</v>
+      </c>
+      <c r="R5">
+        <v>20.761025962476</v>
+      </c>
+      <c r="S5">
+        <v>0.1042015641385711</v>
+      </c>
+      <c r="T5">
+        <v>0.1042015641385711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2.45910489248218</v>
-      </c>
-      <c r="H5">
-        <v>2.45910489248218</v>
-      </c>
-      <c r="I5">
-        <v>0.7845497864350464</v>
-      </c>
-      <c r="J5">
-        <v>0.7845497864350464</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.71731400284652</v>
-      </c>
-      <c r="N5">
-        <v>4.71731400284652</v>
-      </c>
-      <c r="O5">
-        <v>0.9066574144120396</v>
-      </c>
-      <c r="P5">
-        <v>0.9066574144120396</v>
-      </c>
-      <c r="Q5">
-        <v>11.60036994377458</v>
-      </c>
-      <c r="R5">
-        <v>11.60036994377458</v>
-      </c>
-      <c r="S5">
-        <v>0.711317880846717</v>
-      </c>
-      <c r="T5">
-        <v>0.711317880846717</v>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.320814666666667</v>
+      </c>
+      <c r="H6">
+        <v>9.962444</v>
+      </c>
+      <c r="I6">
+        <v>0.8208727378494701</v>
+      </c>
+      <c r="J6">
+        <v>0.8208727378494702</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05042666666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.15128</v>
+      </c>
+      <c r="O6">
+        <v>0.009215035297398391</v>
+      </c>
+      <c r="P6">
+        <v>0.009215035297398391</v>
+      </c>
+      <c r="Q6">
+        <v>0.1674576142577778</v>
+      </c>
+      <c r="R6">
+        <v>1.50711852832</v>
+      </c>
+      <c r="S6">
+        <v>0.007564371253954923</v>
+      </c>
+      <c r="T6">
+        <v>0.007564371253954924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.320814666666667</v>
+      </c>
+      <c r="H7">
+        <v>9.962444</v>
+      </c>
+      <c r="I7">
+        <v>0.8208727378494701</v>
+      </c>
+      <c r="J7">
+        <v>0.8208727378494702</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>4.727146666666667</v>
+      </c>
+      <c r="N7">
+        <v>14.18144</v>
+      </c>
+      <c r="O7">
+        <v>0.8638449905336953</v>
+      </c>
+      <c r="P7">
+        <v>0.8638449905336955</v>
+      </c>
+      <c r="Q7">
+        <v>15.69797798215111</v>
+      </c>
+      <c r="R7">
+        <v>141.28180183936</v>
+      </c>
+      <c r="S7">
+        <v>0.7091068024569441</v>
+      </c>
+      <c r="T7">
+        <v>0.7091068024569442</v>
       </c>
     </row>
   </sheetData>
